--- a/data/original_data/CPI/SummaryIndicators_2020July1.xlsx
+++ b/data/original_data/CPI/SummaryIndicators_2020July1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schwarze/Documents/GitHub/CyberPower/data/original_data/CPI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29765F0A-9C3B-B04D-934B-3F3A22D33E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CF463-6D3A-0A44-B4A7-53A9080597E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="940" windowWidth="28400" windowHeight="16160" xr2:uid="{C2164DF1-47AC-7548-8CB5-D18AB5CCF8E8}"/>
   </bookViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A59D29E-DB4E-564C-979D-768B70DD4586}">
   <dimension ref="A1:AV1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
